--- a/medicine/Enfance/Paul_Galdone/Paul_Galdone.xlsx
+++ b/medicine/Enfance/Paul_Galdone/Paul_Galdone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Galdone, né le 2 juin 1907 à Budapest et mort le 7 novembre 1986 à Nyack dans l’État de New York, est un auteur et dessinateur américain. Il est connu pour son œuvre d’illustration de livres pour enfants.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né vers 1907 ou 1914 à Budapest, Paul Galdone émigre aux États-Unis dans les années 1920, à l’âge de 14 ans. Il étudie les arts à la Art Students League et à la  New York School for Industrial Design. Pendant la Seconde Guerre mondiale il fait son service militaire avec l’armée américaine. 
-Au cours de sa longue carrière, Paul Galdone a illustré des dizaines d’ouvrages d’auteurs divers ainsi que ses propres adaptations de contes traditionnels ou folkloriques. Il est peut-être le mieux connu pour avoir illustré pratiquement tous les livres de Eve Titus, dont ceux de la série Basil of Baker Street. Il a été mis en nomination pour l’obtention de la Médaille Caldecott pour son illustration des livres de Eve Titus Anatole (1957) et Anatole and the Cat (1958)[1].
-Paul Galdone est mort à Nyack, dans l’État de New York, des suites d’une crise cardiaque. En 1996, on lui a décerné à titre posthume le prix Kerlan pour sa contribution à la littérature enfantine[2].
+Au cours de sa longue carrière, Paul Galdone a illustré des dizaines d’ouvrages d’auteurs divers ainsi que ses propres adaptations de contes traditionnels ou folkloriques. Il est peut-être le mieux connu pour avoir illustré pratiquement tous les livres de Eve Titus, dont ceux de la série Basil of Baker Street. Il a été mis en nomination pour l’obtention de la Médaille Caldecott pour son illustration des livres de Eve Titus Anatole (1957) et Anatole and the Cat (1958).
+Paul Galdone est mort à Nyack, dans l’État de New York, des suites d’une crise cardiaque. En 1996, on lui a décerné à titre posthume le prix Kerlan pour sa contribution à la littérature enfantine.
 </t>
         </is>
       </c>
